--- a/MA/arquivos/dados.xlsx
+++ b/MA/arquivos/dados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuário\Downloads\MA\arquivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuário\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A983EA-BEC0-4050-A7FA-BD44E55DF608}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60161B46-5290-4C1F-A35E-B362796A3A41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4145" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4145" uniqueCount="536">
   <si>
     <t>id</t>
   </si>
@@ -638,9 +638,6 @@
   </si>
   <si>
     <t>Tentativa de roubo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não </t>
   </si>
   <si>
     <t>BR-135 (Distr. Industrial)</t>
@@ -2028,8 +2025,8 @@
   <dimension ref="A1:AC141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1:G1048576"/>
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z3" sqref="Z3:Z141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2079,7 +2076,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -2094,7 +2091,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>8</v>
@@ -2136,7 +2133,7 @@
         <v>20</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>21</v>
@@ -2278,7 +2275,7 @@
         <v>114</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>115</v>
@@ -2290,7 +2287,7 @@
         <v>116</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>76</v>
@@ -2302,7 +2299,7 @@
         <v>117</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>34</v>
@@ -2361,28 +2358,28 @@
         <v>56</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="M4" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>394</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>395</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>162</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>76</v>
@@ -2412,7 +2409,7 @@
         <v>41</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AB4" s="7" t="s">
         <v>43</v>
@@ -2539,10 +2536,10 @@
         <v>56</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>33</v>
@@ -2560,13 +2557,13 @@
         <v>34</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>165</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="T6" s="7" t="s">
         <v>38</v>
@@ -2616,7 +2613,7 @@
         <v>27</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>178</v>
@@ -2631,7 +2628,7 @@
         <v>90</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>33</v>
@@ -2655,7 +2652,7 @@
         <v>34</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="T7" s="7" t="s">
         <v>62</v>
@@ -2675,7 +2672,7 @@
       <c r="Y7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Z7" s="5" t="s">
+      <c r="Z7" s="7" t="s">
         <v>80</v>
       </c>
       <c r="AA7" s="5" t="s">
@@ -2764,7 +2761,7 @@
       <c r="Y8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Z8" s="5" t="s">
+      <c r="Z8" s="7" t="s">
         <v>80</v>
       </c>
       <c r="AA8" s="5" t="s">
@@ -2794,7 +2791,7 @@
         <v>27</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G9" s="6">
         <v>34</v>
@@ -2809,7 +2806,7 @@
         <v>90</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>33</v>
@@ -2821,7 +2818,7 @@
         <v>34</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>162</v>
@@ -2830,10 +2827,10 @@
         <v>37</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="T9" s="7" t="s">
         <v>62</v>
@@ -2853,7 +2850,7 @@
       <c r="Y9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Z9" s="5" t="s">
+      <c r="Z9" s="7" t="s">
         <v>80</v>
       </c>
       <c r="AA9" s="5" t="s">
@@ -2895,31 +2892,31 @@
         <v>56</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K10" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="M10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="5" t="s">
         <v>470</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>471</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S10" s="5" t="s">
         <v>38</v>
@@ -2942,7 +2939,7 @@
       <c r="Y10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Z10" s="5" t="s">
+      <c r="Z10" s="7" t="s">
         <v>80</v>
       </c>
       <c r="AA10" s="5" t="s">
@@ -3008,7 +3005,7 @@
         <v>37</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S11" s="5" t="s">
         <v>38</v>
@@ -3097,7 +3094,7 @@
         <v>37</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S12" s="5" t="s">
         <v>38</v>
@@ -3165,19 +3162,19 @@
         <v>34</v>
       </c>
       <c r="K13" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="5" t="s">
         <v>472</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>473</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>162</v>
@@ -3186,7 +3183,7 @@
         <v>37</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S13" s="5" t="s">
         <v>105</v>
@@ -3198,7 +3195,7 @@
         <v>87</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="W13" s="5" t="s">
         <v>41</v>
@@ -3209,7 +3206,7 @@
       <c r="Y13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Z13" s="5" t="s">
+      <c r="Z13" s="7" t="s">
         <v>80</v>
       </c>
       <c r="AA13" s="5" t="s">
@@ -3325,7 +3322,7 @@
         <v>44</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>34</v>
@@ -3343,7 +3340,7 @@
         <v>57</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>33</v>
@@ -3361,22 +3358,22 @@
         <v>34</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R15" s="5" t="s">
         <v>165</v>
       </c>
       <c r="S15" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="T15" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="T15" s="7" t="s">
+      <c r="U15" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="U15" s="5" t="s">
-        <v>421</v>
-      </c>
       <c r="V15" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="W15" s="5" t="s">
         <v>80</v>
@@ -3414,10 +3411,10 @@
         <v>44</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>280</v>
       </c>
       <c r="G16" s="8">
         <v>60</v>
@@ -3432,7 +3429,7 @@
         <v>183</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>92</v>
@@ -3444,22 +3441,22 @@
         <v>34</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R16" s="5" t="s">
         <v>165</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U16" s="5" t="s">
         <v>34</v>
@@ -3625,13 +3622,13 @@
         <v>138</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>139</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="S18" s="7" t="s">
         <v>38</v>
@@ -3684,7 +3681,7 @@
         <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>178</v>
@@ -3699,7 +3696,7 @@
         <v>90</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>33</v>
@@ -3723,7 +3720,7 @@
         <v>76</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T19" s="7" t="s">
         <v>62</v>
@@ -3773,7 +3770,7 @@
         <v>118</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>178</v>
@@ -3788,7 +3785,7 @@
         <v>90</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>33</v>
@@ -3812,7 +3809,7 @@
         <v>76</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T20" s="7" t="s">
         <v>62</v>
@@ -3832,7 +3829,7 @@
       <c r="Y20" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Z20" s="5" t="s">
+      <c r="Z20" s="7" t="s">
         <v>80</v>
       </c>
       <c r="AA20" s="5" t="s">
@@ -3862,7 +3859,7 @@
         <v>118</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G21" s="6">
         <v>32</v>
@@ -3877,7 +3874,7 @@
         <v>125</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>92</v>
@@ -3889,25 +3886,25 @@
         <v>34</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R21" s="7" t="s">
         <v>165</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="T21" s="7" t="s">
         <v>62</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="V21" s="7" t="s">
         <v>64</v>
@@ -3951,19 +3948,19 @@
         <v>118</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G22" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>499</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>500</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>195</v>
@@ -3972,10 +3969,10 @@
         <v>33</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O22" s="5" t="s">
         <v>34</v>
@@ -3984,7 +3981,7 @@
         <v>34</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="R22" s="7" t="s">
         <v>165</v>
@@ -4010,11 +4007,11 @@
       <c r="Y22" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Z22" s="5" t="s">
+      <c r="Z22" s="7" t="s">
         <v>80</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB22" s="5" t="s">
         <v>149</v>
@@ -4040,7 +4037,7 @@
         <v>118</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>178</v>
@@ -4079,7 +4076,7 @@
         <v>34</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T23" s="7" t="s">
         <v>62</v>
@@ -4088,7 +4085,7 @@
         <v>87</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="W23" s="5" t="s">
         <v>41</v>
@@ -4099,7 +4096,7 @@
       <c r="Y23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Z23" s="5" t="s">
+      <c r="Z23" s="7" t="s">
         <v>80</v>
       </c>
       <c r="AA23" s="5" t="s">
@@ -4129,7 +4126,7 @@
         <v>118</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>178</v>
@@ -4168,16 +4165,16 @@
         <v>34</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T24" s="7" t="s">
         <v>62</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V24" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W24" s="5" t="s">
         <v>41</v>
@@ -4218,7 +4215,7 @@
         <v>118</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G25" s="6">
         <v>26</v>
@@ -4233,7 +4230,7 @@
         <v>90</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>190</v>
@@ -4254,13 +4251,13 @@
         <v>37</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>117</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="U25" s="5" t="s">
         <v>34</v>
@@ -4307,7 +4304,7 @@
         <v>118</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>178</v>
@@ -4319,10 +4316,10 @@
         <v>56</v>
       </c>
       <c r="J26" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>33</v>
@@ -4343,7 +4340,7 @@
         <v>37</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S26" s="7" t="s">
         <v>38</v>
@@ -4432,7 +4429,7 @@
         <v>37</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S27" s="7" t="s">
         <v>38</v>
@@ -4485,7 +4482,7 @@
         <v>118</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G28" s="8">
         <v>27</v>
@@ -4500,7 +4497,7 @@
         <v>94</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>33</v>
@@ -4521,7 +4518,7 @@
         <v>37</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S28" s="7" t="s">
         <v>38</v>
@@ -4574,7 +4571,7 @@
         <v>118</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>29</v>
@@ -4586,7 +4583,7 @@
         <v>30</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>33</v>
@@ -4595,10 +4592,10 @@
         <v>33</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>34</v>
@@ -4610,13 +4607,13 @@
         <v>37</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U29" s="7" t="s">
         <v>34</v>
@@ -4637,7 +4634,7 @@
         <v>80</v>
       </c>
       <c r="AA29" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AB29" s="7" t="s">
         <v>149</v>
@@ -4663,22 +4660,22 @@
         <v>45</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="H30" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="I30" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="H30" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="I30" s="8" t="s">
+      <c r="J30" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>57</v>
@@ -4690,16 +4687,16 @@
         <v>34</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>479</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="R30" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="S30" s="7" t="s">
         <v>38</v>
@@ -4711,7 +4708,7 @@
         <v>87</v>
       </c>
       <c r="V30" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="W30" s="7" t="s">
         <v>80</v>
@@ -4726,7 +4723,7 @@
         <v>41</v>
       </c>
       <c r="AA30" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AB30" s="7" t="s">
         <v>43</v>
@@ -4900,7 +4897,7 @@
       <c r="Y32" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Z32" s="5" t="s">
+      <c r="Z32" s="7" t="s">
         <v>80</v>
       </c>
       <c r="AA32" s="5" t="s">
@@ -4930,7 +4927,7 @@
         <v>45</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G33" s="8">
         <v>25</v>
@@ -4969,13 +4966,13 @@
         <v>71</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T33" s="7" t="s">
         <v>62</v>
       </c>
       <c r="U33" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="V33" s="7" t="s">
         <v>64</v>
@@ -4989,7 +4986,7 @@
       <c r="Y33" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Z33" s="5" t="s">
+      <c r="Z33" s="7" t="s">
         <v>80</v>
       </c>
       <c r="AA33" s="5" t="s">
@@ -5019,7 +5016,7 @@
         <v>45</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>178</v>
@@ -5052,19 +5049,19 @@
         <v>34</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R34" s="7" t="s">
         <v>71</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T34" s="7" t="s">
         <v>62</v>
       </c>
       <c r="U34" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="V34" s="7" t="s">
         <v>64</v>
@@ -5078,7 +5075,7 @@
       <c r="Y34" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Z34" s="5" t="s">
+      <c r="Z34" s="7" t="s">
         <v>80</v>
       </c>
       <c r="AA34" s="5" t="s">
@@ -5108,7 +5105,7 @@
         <v>45</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G35" s="6">
         <v>16</v>
@@ -5141,7 +5138,7 @@
         <v>34</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="R35" s="5" t="s">
         <v>71</v>
@@ -5167,7 +5164,7 @@
       <c r="Y35" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Z35" s="5" t="s">
+      <c r="Z35" s="7" t="s">
         <v>80</v>
       </c>
       <c r="AA35" s="5" t="s">
@@ -5227,7 +5224,7 @@
         <v>132</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q36" s="5" t="s">
         <v>71</v>
@@ -5245,7 +5242,7 @@
         <v>87</v>
       </c>
       <c r="V36" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="W36" s="5" t="s">
         <v>41</v>
@@ -5256,7 +5253,7 @@
       <c r="Y36" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Z36" s="5" t="s">
+      <c r="Z36" s="7" t="s">
         <v>80</v>
       </c>
       <c r="AA36" s="5" t="s">
@@ -5319,22 +5316,22 @@
         <v>34</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R37" s="7" t="s">
         <v>71</v>
       </c>
       <c r="S37" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T37" s="7" t="s">
         <v>62</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W37" s="7" t="s">
         <v>41</v>
@@ -5414,16 +5411,16 @@
         <v>162</v>
       </c>
       <c r="S38" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="T38" s="7" t="s">
         <v>62</v>
       </c>
       <c r="U38" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="V38" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W38" s="7" t="s">
         <v>41</v>
@@ -5479,7 +5476,7 @@
         <v>109</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>33</v>
@@ -5497,16 +5494,16 @@
         <v>34</v>
       </c>
       <c r="Q39" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="R39" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="R39" s="7" t="s">
+      <c r="S39" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="S39" s="7" t="s">
+      <c r="T39" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="T39" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="U39" s="7" t="s">
         <v>85</v>
@@ -5527,7 +5524,7 @@
         <v>80</v>
       </c>
       <c r="AA39" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB39" s="7" t="s">
         <v>181</v>
@@ -5681,13 +5678,13 @@
         <v>76</v>
       </c>
       <c r="S41" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="T41" s="7" t="s">
         <v>62</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="V41" s="7" t="s">
         <v>64</v>
@@ -5731,7 +5728,7 @@
         <v>45</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G42" s="8">
         <v>38</v>
@@ -5743,10 +5740,10 @@
         <v>56</v>
       </c>
       <c r="J42" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>33</v>
@@ -5758,10 +5755,10 @@
         <v>34</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>76</v>
@@ -5770,13 +5767,13 @@
         <v>76</v>
       </c>
       <c r="S42" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="T42" s="7" t="s">
         <v>62</v>
       </c>
       <c r="U42" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V42" s="7" t="s">
         <v>64</v>
@@ -5820,7 +5817,7 @@
         <v>45</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G43" s="8">
         <v>36</v>
@@ -5835,7 +5832,7 @@
         <v>57</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>57</v>
@@ -5847,7 +5844,7 @@
         <v>115</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>162</v>
@@ -5879,7 +5876,7 @@
       <c r="Y43" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Z43" s="5" t="s">
+      <c r="Z43" s="7" t="s">
         <v>80</v>
       </c>
       <c r="AA43" s="5" t="s">
@@ -5909,7 +5906,7 @@
         <v>45</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>178</v>
@@ -5924,7 +5921,7 @@
         <v>94</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>33</v>
@@ -5942,7 +5939,7 @@
         <v>34</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R44" s="7" t="s">
         <v>76</v>
@@ -5998,7 +5995,7 @@
         <v>45</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>178</v>
@@ -6013,7 +6010,7 @@
         <v>90</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>33</v>
@@ -6031,7 +6028,7 @@
         <v>34</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="R45" s="7" t="s">
         <v>76</v>
@@ -6057,7 +6054,7 @@
       <c r="Y45" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Z45" s="5" t="s">
+      <c r="Z45" s="7" t="s">
         <v>80</v>
       </c>
       <c r="AA45" s="5" t="s">
@@ -6150,7 +6147,7 @@
         <v>80</v>
       </c>
       <c r="AA46" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AB46" s="7" t="s">
         <v>43</v>
@@ -6176,7 +6173,7 @@
         <v>45</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>178</v>
@@ -6191,7 +6188,7 @@
         <v>57</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>33</v>
@@ -6203,19 +6200,19 @@
         <v>115</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>111</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="R47" s="7" t="s">
         <v>76</v>
       </c>
       <c r="S47" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T47" s="7" t="s">
         <v>62</v>
@@ -6289,7 +6286,7 @@
         <v>50</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>35</v>
@@ -6357,7 +6354,7 @@
         <v>168</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>108</v>
@@ -6366,10 +6363,10 @@
         <v>30</v>
       </c>
       <c r="J49" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>33</v>
@@ -6381,31 +6378,31 @@
         <v>85</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="R49" s="7" t="s">
         <v>165</v>
       </c>
       <c r="S49" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="T49" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="T49" s="7" t="s">
+      <c r="U49" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="U49" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="V49" s="7" t="s">
         <v>64</v>
       </c>
       <c r="W49" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="X49" s="7" t="s">
         <v>41</v>
@@ -6417,7 +6414,7 @@
         <v>41</v>
       </c>
       <c r="AA49" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AB49" s="7" t="s">
         <v>43</v>
@@ -6443,7 +6440,7 @@
         <v>45</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G50" s="8">
         <v>20</v>
@@ -6458,7 +6455,7 @@
         <v>57</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>127</v>
@@ -6470,25 +6467,25 @@
         <v>34</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="R50" s="7" t="s">
         <v>165</v>
       </c>
       <c r="S50" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="T50" s="7" t="s">
         <v>62</v>
       </c>
       <c r="U50" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V50" s="7" t="s">
         <v>64</v>
@@ -6633,7 +6630,7 @@
         <v>56</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>195</v>
@@ -6645,25 +6642,25 @@
         <v>176</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R52" s="7" t="s">
         <v>165</v>
       </c>
       <c r="S52" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="T52" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="U52" s="7" t="s">
         <v>34</v>
@@ -6710,7 +6707,7 @@
         <v>45</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G53" s="8">
         <v>20</v>
@@ -6725,7 +6722,7 @@
         <v>57</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>33</v>
@@ -6737,13 +6734,13 @@
         <v>34</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R53" s="7" t="s">
         <v>165</v>
@@ -6799,7 +6796,7 @@
         <v>45</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G54" s="8">
         <v>25</v>
@@ -6814,7 +6811,7 @@
         <v>90</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>190</v>
@@ -6826,13 +6823,13 @@
         <v>34</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="R54" s="7" t="s">
         <v>165</v>
@@ -6888,7 +6885,7 @@
         <v>45</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>29</v>
@@ -6900,10 +6897,10 @@
         <v>30</v>
       </c>
       <c r="J55" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>33</v>
@@ -6915,13 +6912,13 @@
         <v>34</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="R55" s="7" t="s">
         <v>165</v>
@@ -6977,7 +6974,7 @@
         <v>45</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>178</v>
@@ -6986,13 +6983,13 @@
         <v>69</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J56" s="6" t="s">
         <v>57</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>33</v>
@@ -7001,16 +6998,16 @@
         <v>176</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R56" s="7" t="s">
         <v>165</v>
@@ -7066,7 +7063,7 @@
         <v>45</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>178</v>
@@ -7099,7 +7096,7 @@
         <v>162</v>
       </c>
       <c r="Q57" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="R57" s="7" t="s">
         <v>165</v>
@@ -7155,7 +7152,7 @@
         <v>45</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G58" s="8">
         <v>29</v>
@@ -7170,7 +7167,7 @@
         <v>90</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>92</v>
@@ -7182,13 +7179,13 @@
         <v>34</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P58" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R58" s="7" t="s">
         <v>165</v>
@@ -7244,7 +7241,7 @@
         <v>45</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>178</v>
@@ -7277,13 +7274,13 @@
         <v>162</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R59" s="7" t="s">
         <v>165</v>
       </c>
       <c r="S59" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="T59" s="7" t="s">
         <v>38</v>
@@ -7333,7 +7330,7 @@
         <v>45</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G60" s="8">
         <v>18</v>
@@ -7342,31 +7339,31 @@
         <v>69</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L60" s="7" t="s">
         <v>33</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R60" s="7" t="s">
         <v>165</v>
@@ -7422,7 +7419,7 @@
         <v>45</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G61" s="8">
         <v>22</v>
@@ -7437,7 +7434,7 @@
         <v>57</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L61" s="7" t="s">
         <v>33</v>
@@ -7446,16 +7443,16 @@
         <v>176</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O61" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q61" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P61" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q61" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="R61" s="7" t="s">
         <v>165</v>
@@ -7511,7 +7508,7 @@
         <v>45</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G62" s="8">
         <v>36</v>
@@ -7523,7 +7520,7 @@
         <v>56</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>33</v>
@@ -7544,13 +7541,13 @@
         <v>34</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R62" s="7" t="s">
         <v>165</v>
       </c>
       <c r="S62" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T62" s="7" t="s">
         <v>38</v>
@@ -7600,7 +7597,7 @@
         <v>45</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>178</v>
@@ -7615,7 +7612,7 @@
         <v>90</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>33</v>
@@ -7633,7 +7630,7 @@
         <v>34</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R63" s="7" t="s">
         <v>165</v>
@@ -7663,7 +7660,7 @@
         <v>41</v>
       </c>
       <c r="AA63" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AB63" s="7" t="s">
         <v>149</v>
@@ -7689,7 +7686,7 @@
         <v>45</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G64" s="8">
         <v>36</v>
@@ -7704,7 +7701,7 @@
         <v>90</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L64" s="7" t="s">
         <v>33</v>
@@ -7716,22 +7713,22 @@
         <v>34</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R64" s="7" t="s">
         <v>165</v>
       </c>
       <c r="S64" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T64" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U64" s="7" t="s">
         <v>34</v>
@@ -7778,7 +7775,7 @@
         <v>45</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>178</v>
@@ -7811,22 +7808,22 @@
         <v>34</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="R65" s="7" t="s">
         <v>165</v>
       </c>
       <c r="S65" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T65" s="7" t="s">
         <v>62</v>
       </c>
       <c r="U65" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="V65" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="W65" s="7" t="s">
         <v>80</v>
@@ -7841,7 +7838,7 @@
         <v>41</v>
       </c>
       <c r="AA65" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AB65" s="7" t="s">
         <v>43</v>
@@ -7867,7 +7864,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>178</v>
@@ -7879,10 +7876,10 @@
         <v>56</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L66" s="7" t="s">
         <v>33</v>
@@ -7894,25 +7891,25 @@
         <v>34</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P66" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R66" s="7" t="s">
         <v>165</v>
       </c>
       <c r="S66" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="T66" s="7" t="s">
         <v>62</v>
       </c>
       <c r="U66" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="V66" s="7" t="s">
         <v>64</v>
@@ -7956,7 +7953,7 @@
         <v>45</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G67" s="8">
         <v>26</v>
@@ -7971,10 +7968,10 @@
         <v>57</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M67" s="7" t="s">
         <v>34</v>
@@ -7989,22 +7986,22 @@
         <v>162</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="R67" s="7" t="s">
         <v>165</v>
       </c>
       <c r="S67" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="T67" s="7" t="s">
         <v>62</v>
       </c>
       <c r="U67" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V67" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W67" s="7" t="s">
         <v>80</v>
@@ -8045,7 +8042,7 @@
         <v>45</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G68" s="8">
         <v>28</v>
@@ -8060,7 +8057,7 @@
         <v>90</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L68" s="7" t="s">
         <v>127</v>
@@ -8084,7 +8081,7 @@
         <v>34</v>
       </c>
       <c r="S68" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T68" s="7" t="s">
         <v>62</v>
@@ -8149,37 +8146,37 @@
         <v>90</v>
       </c>
       <c r="K69" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L69" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="L69" s="7" t="s">
+      <c r="M69" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N69" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q69" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R69" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S69" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="M69" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N69" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O69" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P69" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q69" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R69" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="S69" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="T69" s="7" t="s">
         <v>62</v>
       </c>
       <c r="U69" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="V69" s="7" t="s">
         <v>64</v>
@@ -8223,7 +8220,7 @@
         <v>45</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>178</v>
@@ -8238,7 +8235,7 @@
         <v>57</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>33</v>
@@ -8262,10 +8259,10 @@
         <v>34</v>
       </c>
       <c r="S70" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T70" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U70" s="7" t="s">
         <v>34</v>
@@ -8401,7 +8398,7 @@
         <v>45</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>178</v>
@@ -8416,10 +8413,10 @@
         <v>101</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M72" s="7" t="s">
         <v>115</v>
@@ -8440,10 +8437,10 @@
         <v>36</v>
       </c>
       <c r="S72" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T72" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U72" s="7" t="s">
         <v>34</v>
@@ -8490,7 +8487,7 @@
         <v>45</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>29</v>
@@ -8502,7 +8499,7 @@
         <v>30</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>195</v>
@@ -8523,13 +8520,13 @@
         <v>34</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R73" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S73" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T73" s="7" t="s">
         <v>62</v>
@@ -8553,7 +8550,7 @@
         <v>41</v>
       </c>
       <c r="AA73" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AB73" s="7" t="s">
         <v>149</v>
@@ -8579,7 +8576,7 @@
         <v>45</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G74" s="8">
         <v>21</v>
@@ -8591,10 +8588,10 @@
         <v>56</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L74" s="7" t="s">
         <v>33</v>
@@ -8615,10 +8612,10 @@
         <v>37</v>
       </c>
       <c r="R74" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S74" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T74" s="7" t="s">
         <v>62</v>
@@ -8680,7 +8677,7 @@
         <v>30</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K75" s="7" t="s">
         <v>195</v>
@@ -8704,10 +8701,10 @@
         <v>37</v>
       </c>
       <c r="R75" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S75" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="T75" s="7" t="s">
         <v>62</v>
@@ -8757,7 +8754,7 @@
         <v>45</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G76" s="8">
         <v>20</v>
@@ -8769,10 +8766,10 @@
         <v>56</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L76" s="7" t="s">
         <v>33</v>
@@ -8781,7 +8778,7 @@
         <v>176</v>
       </c>
       <c r="N76" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O76" s="7" t="s">
         <v>34</v>
@@ -8793,10 +8790,10 @@
         <v>37</v>
       </c>
       <c r="R76" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S76" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T76" s="7" t="s">
         <v>62</v>
@@ -8846,7 +8843,7 @@
         <v>45</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G77" s="8">
         <v>36</v>
@@ -8861,7 +8858,7 @@
         <v>90</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L77" s="7" t="s">
         <v>137</v>
@@ -8873,28 +8870,28 @@
         <v>34</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q77" s="7" t="s">
         <v>37</v>
       </c>
       <c r="R77" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S77" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T77" s="7" t="s">
         <v>62</v>
       </c>
       <c r="U77" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="V77" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="W77" s="7" t="s">
         <v>80</v>
@@ -8935,7 +8932,7 @@
         <v>45</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G78" s="8">
         <v>41</v>
@@ -8950,40 +8947,40 @@
         <v>90</v>
       </c>
       <c r="K78" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L78" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="L78" s="7" t="s">
+      <c r="M78" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N78" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O78" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="M78" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N78" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O78" s="7" t="s">
-        <v>448</v>
-      </c>
       <c r="P78" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Q78" s="7" t="s">
         <v>37</v>
       </c>
       <c r="R78" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S78" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T78" s="7" t="s">
         <v>62</v>
       </c>
       <c r="U78" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="V78" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="W78" s="7" t="s">
         <v>80</v>
@@ -9060,7 +9057,7 @@
         <v>60</v>
       </c>
       <c r="R79" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S79" s="7" t="s">
         <v>61</v>
@@ -9113,7 +9110,7 @@
         <v>45</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>178</v>
@@ -9128,7 +9125,7 @@
         <v>34</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L80" s="7" t="s">
         <v>92</v>
@@ -9146,19 +9143,19 @@
         <v>162</v>
       </c>
       <c r="Q80" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R80" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S80" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="T80" s="5" t="s">
         <v>62</v>
       </c>
       <c r="U80" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="V80" s="7" t="s">
         <v>64</v>
@@ -9172,7 +9169,7 @@
       <c r="Y80" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Z80" s="5" t="s">
+      <c r="Z80" s="7" t="s">
         <v>80</v>
       </c>
       <c r="AA80" s="5" t="s">
@@ -9217,7 +9214,7 @@
         <v>90</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L81" s="7" t="s">
         <v>33</v>
@@ -9229,25 +9226,25 @@
         <v>34</v>
       </c>
       <c r="O81" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P81" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q81" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="R81" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="S81" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P81" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q81" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="R81" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="S81" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="T81" s="7" t="s">
         <v>62</v>
       </c>
       <c r="U81" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="V81" s="7" t="s">
         <v>64</v>
@@ -9291,7 +9288,7 @@
         <v>45</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G82" s="8">
         <v>23</v>
@@ -9306,7 +9303,7 @@
         <v>90</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>33</v>
@@ -9327,16 +9324,16 @@
         <v>37</v>
       </c>
       <c r="R82" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S82" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="T82" s="7" t="s">
         <v>62</v>
       </c>
       <c r="U82" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="V82" s="7" t="s">
         <v>64</v>
@@ -9410,13 +9407,13 @@
         <v>192</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q83" s="7" t="s">
         <v>37</v>
       </c>
       <c r="R83" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S83" s="7" t="s">
         <v>193</v>
@@ -9469,7 +9466,7 @@
         <v>45</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>178</v>
@@ -9490,10 +9487,10 @@
         <v>33</v>
       </c>
       <c r="M84" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N84" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O84" s="7" t="s">
         <v>90</v>
@@ -9505,13 +9502,13 @@
         <v>37</v>
       </c>
       <c r="R84" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S84" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="T84" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="U84" s="7" t="s">
         <v>34</v>
@@ -9532,7 +9529,7 @@
         <v>41</v>
       </c>
       <c r="AA84" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AB84" s="7" t="s">
         <v>149</v>
@@ -9558,7 +9555,7 @@
         <v>45</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>178</v>
@@ -9570,37 +9567,37 @@
         <v>56</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K85" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="L85" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="M85" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N85" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O85" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P85" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q85" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="L85" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="M85" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N85" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O85" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P85" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q85" s="7" t="s">
-        <v>490</v>
-      </c>
       <c r="R85" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S85" s="7" t="s">
         <v>117</v>
       </c>
       <c r="T85" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="U85" s="7" t="s">
         <v>34</v>
@@ -9647,7 +9644,7 @@
         <v>45</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>178</v>
@@ -9659,37 +9656,37 @@
         <v>56</v>
       </c>
       <c r="J86" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M86" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N86" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O86" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P86" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q86" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K86" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L86" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M86" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N86" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O86" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P86" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q86" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="R86" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S86" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="T86" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="U86" s="7" t="s">
         <v>34</v>
@@ -9736,22 +9733,22 @@
         <v>45</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I87" s="8" t="s">
         <v>30</v>
       </c>
       <c r="J87" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="K87" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K87" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="L87" s="7" t="s">
         <v>57</v>
@@ -9763,22 +9760,22 @@
         <v>34</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q87" s="7" t="s">
         <v>37</v>
       </c>
       <c r="R87" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S87" s="7" t="s">
         <v>117</v>
       </c>
       <c r="T87" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="U87" s="7" t="s">
         <v>34</v>
@@ -9799,7 +9796,7 @@
         <v>41</v>
       </c>
       <c r="AA87" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AB87" s="7" t="s">
         <v>181</v>
@@ -9837,31 +9834,31 @@
         <v>56</v>
       </c>
       <c r="J88" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M88" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N88" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O88" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P88" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q88" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="K88" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L88" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M88" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N88" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O88" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P88" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q88" s="7" t="s">
-        <v>408</v>
-      </c>
       <c r="R88" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S88" s="7" t="s">
         <v>38</v>
@@ -9914,7 +9911,7 @@
         <v>45</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G89" s="8">
         <v>44</v>
@@ -9926,10 +9923,10 @@
         <v>56</v>
       </c>
       <c r="J89" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="K89" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K89" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="L89" s="7" t="s">
         <v>33</v>
@@ -9941,16 +9938,16 @@
         <v>34</v>
       </c>
       <c r="O89" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P89" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P89" s="7" t="s">
+      <c r="Q89" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="Q89" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="R89" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S89" s="7" t="s">
         <v>38</v>
@@ -10003,7 +10000,7 @@
         <v>45</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G90" s="8">
         <v>21</v>
@@ -10015,10 +10012,10 @@
         <v>56</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L90" s="7" t="s">
         <v>33</v>
@@ -10027,19 +10024,19 @@
         <v>176</v>
       </c>
       <c r="N90" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P90" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R90" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S90" s="7" t="s">
         <v>38</v>
@@ -10092,7 +10089,7 @@
         <v>45</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>178</v>
@@ -10104,7 +10101,7 @@
         <v>56</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K91" s="5" t="s">
         <v>195</v>
@@ -10125,10 +10122,10 @@
         <v>162</v>
       </c>
       <c r="Q91" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R91" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S91" s="5" t="s">
         <v>38</v>
@@ -10151,7 +10148,7 @@
       <c r="Y91" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Z91" s="5" t="s">
+      <c r="Z91" s="7" t="s">
         <v>80</v>
       </c>
       <c r="AA91" s="5" t="s">
@@ -10208,19 +10205,19 @@
         <v>115</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P92" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Q92" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R92" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S92" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="T92" s="5" t="s">
         <v>38</v>
@@ -10240,7 +10237,7 @@
       <c r="Y92" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Z92" s="5" t="s">
+      <c r="Z92" s="7" t="s">
         <v>80</v>
       </c>
       <c r="AA92" s="5" t="s">
@@ -10285,7 +10282,7 @@
         <v>57</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L93" s="7" t="s">
         <v>33</v>
@@ -10303,10 +10300,10 @@
         <v>34</v>
       </c>
       <c r="Q93" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R93" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S93" s="5" t="s">
         <v>38</v>
@@ -10329,7 +10326,7 @@
       <c r="Y93" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Z93" s="5" t="s">
+      <c r="Z93" s="7" t="s">
         <v>80</v>
       </c>
       <c r="AA93" s="5" t="s">
@@ -10359,7 +10356,7 @@
         <v>45</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G94" s="6">
         <v>18</v>
@@ -10371,7 +10368,7 @@
         <v>56</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K94" s="5" t="s">
         <v>32</v>
@@ -10392,10 +10389,10 @@
         <v>36</v>
       </c>
       <c r="Q94" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R94" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S94" s="5" t="s">
         <v>38</v>
@@ -10448,7 +10445,7 @@
         <v>45</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G95" s="6" t="s">
         <v>142</v>
@@ -10457,13 +10454,13 @@
         <v>142</v>
       </c>
       <c r="I95" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="J95" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="J95" s="6" t="s">
+      <c r="K95" s="5" t="s">
         <v>457</v>
-      </c>
-      <c r="K95" s="5" t="s">
-        <v>458</v>
       </c>
       <c r="L95" s="7" t="s">
         <v>33</v>
@@ -10475,16 +10472,16 @@
         <v>115</v>
       </c>
       <c r="O95" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q95" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R95" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S95" s="5" t="s">
         <v>38</v>
@@ -10499,7 +10496,7 @@
         <v>34</v>
       </c>
       <c r="W95" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="X95" s="7" t="s">
         <v>41</v>
@@ -10507,7 +10504,7 @@
       <c r="Y95" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Z95" s="5" t="s">
+      <c r="Z95" s="7" t="s">
         <v>80</v>
       </c>
       <c r="AA95" s="5" t="s">
@@ -10537,22 +10534,22 @@
         <v>45</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G96" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="H96" s="8" t="s">
         <v>337</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>338</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L96" s="7" t="s">
         <v>33</v>
@@ -10564,16 +10561,16 @@
         <v>85</v>
       </c>
       <c r="O96" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q96" s="5" t="s">
         <v>37</v>
       </c>
       <c r="R96" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S96" s="5" t="s">
         <v>38</v>
@@ -10600,7 +10597,7 @@
         <v>41</v>
       </c>
       <c r="AA96" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AB96" s="5" t="s">
         <v>149</v>
@@ -10626,7 +10623,7 @@
         <v>45</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G97" s="8">
         <v>76</v>
@@ -10641,7 +10638,7 @@
         <v>183</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L97" s="7" t="s">
         <v>92</v>
@@ -10653,7 +10650,7 @@
         <v>34</v>
       </c>
       <c r="O97" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P97" s="7" t="s">
         <v>162</v>
@@ -10662,7 +10659,7 @@
         <v>37</v>
       </c>
       <c r="R97" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S97" s="5" t="s">
         <v>38</v>
@@ -10685,7 +10682,7 @@
       <c r="Y97" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Z97" s="5" t="s">
+      <c r="Z97" s="7" t="s">
         <v>80</v>
       </c>
       <c r="AA97" s="5" t="s">
@@ -10715,7 +10712,7 @@
         <v>45</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G98" s="6" t="s">
         <v>178</v>
@@ -10727,22 +10724,22 @@
         <v>56</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K98" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L98" s="7" t="s">
         <v>33</v>
       </c>
       <c r="M98" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="N98" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="O98" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="N98" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="O98" s="5" t="s">
-        <v>510</v>
       </c>
       <c r="P98" s="7" t="s">
         <v>162</v>
@@ -10751,7 +10748,7 @@
         <v>37</v>
       </c>
       <c r="R98" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S98" s="5" t="s">
         <v>38</v>
@@ -10804,7 +10801,7 @@
         <v>45</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G99" s="6" t="s">
         <v>178</v>
@@ -10819,10 +10816,10 @@
         <v>90</v>
       </c>
       <c r="K99" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M99" s="5" t="s">
         <v>85</v>
@@ -10831,7 +10828,7 @@
         <v>85</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P99" s="7" t="s">
         <v>162</v>
@@ -10840,7 +10837,7 @@
         <v>37</v>
       </c>
       <c r="R99" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S99" s="5" t="s">
         <v>38</v>
@@ -10863,7 +10860,7 @@
       <c r="Y99" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Z99" s="5" t="s">
+      <c r="Z99" s="7" t="s">
         <v>80</v>
       </c>
       <c r="AA99" s="5" t="s">
@@ -10908,7 +10905,7 @@
         <v>90</v>
       </c>
       <c r="K100" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L100" s="7" t="s">
         <v>190</v>
@@ -10929,10 +10926,10 @@
         <v>37</v>
       </c>
       <c r="R100" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S100" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T100" s="5" t="s">
         <v>38</v>
@@ -10952,7 +10949,7 @@
       <c r="Y100" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Z100" s="5" t="s">
+      <c r="Z100" s="7" t="s">
         <v>80</v>
       </c>
       <c r="AA100" s="5" t="s">
@@ -10982,7 +10979,7 @@
         <v>45</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G101" s="8" t="s">
         <v>178</v>
@@ -10997,10 +10994,10 @@
         <v>90</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M101" s="7" t="s">
         <v>115</v>
@@ -11018,7 +11015,7 @@
         <v>37</v>
       </c>
       <c r="R101" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S101" s="7" t="s">
         <v>38</v>
@@ -11071,7 +11068,7 @@
         <v>45</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>178</v>
@@ -11086,7 +11083,7 @@
         <v>90</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L102" s="7" t="s">
         <v>131</v>
@@ -11098,7 +11095,7 @@
         <v>34</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P102" s="7" t="s">
         <v>162</v>
@@ -11107,7 +11104,7 @@
         <v>37</v>
       </c>
       <c r="R102" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S102" s="7" t="s">
         <v>38</v>
@@ -11134,7 +11131,7 @@
         <v>41</v>
       </c>
       <c r="AA102" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AB102" s="7" t="s">
         <v>43</v>
@@ -11160,7 +11157,7 @@
         <v>45</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>178</v>
@@ -11175,7 +11172,7 @@
         <v>90</v>
       </c>
       <c r="K103" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L103" s="7" t="s">
         <v>33</v>
@@ -11196,7 +11193,7 @@
         <v>37</v>
       </c>
       <c r="R103" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S103" s="7" t="s">
         <v>38</v>
@@ -11249,7 +11246,7 @@
         <v>45</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G104" s="8">
         <v>18</v>
@@ -11264,19 +11261,19 @@
         <v>162</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L104" s="7" t="s">
         <v>33</v>
       </c>
       <c r="M104" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N104" s="7" t="s">
         <v>85</v>
       </c>
       <c r="O104" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P104" s="7" t="s">
         <v>162</v>
@@ -11285,7 +11282,7 @@
         <v>37</v>
       </c>
       <c r="R104" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S104" s="7" t="s">
         <v>38</v>
@@ -11338,7 +11335,7 @@
         <v>45</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G105" s="8">
         <v>23</v>
@@ -11350,10 +11347,10 @@
         <v>56</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L105" s="7" t="s">
         <v>33</v>
@@ -11365,7 +11362,7 @@
         <v>115</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P105" s="7" t="s">
         <v>162</v>
@@ -11374,7 +11371,7 @@
         <v>37</v>
       </c>
       <c r="R105" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S105" s="7" t="s">
         <v>38</v>
@@ -11439,10 +11436,10 @@
         <v>56</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K106" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L106" s="7" t="s">
         <v>33</v>
@@ -11454,16 +11451,16 @@
         <v>34</v>
       </c>
       <c r="O106" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P106" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q106" s="7" t="s">
         <v>37</v>
       </c>
       <c r="R106" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S106" s="7" t="s">
         <v>38</v>
@@ -11516,7 +11513,7 @@
         <v>45</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>142</v>
@@ -11525,13 +11522,13 @@
         <v>142</v>
       </c>
       <c r="I107" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="J107" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="J107" s="8" t="s">
-        <v>486</v>
-      </c>
       <c r="K107" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L107" s="7" t="s">
         <v>33</v>
@@ -11540,19 +11537,19 @@
         <v>176</v>
       </c>
       <c r="N107" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P107" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q107" s="7" t="s">
         <v>37</v>
       </c>
       <c r="R107" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S107" s="7" t="s">
         <v>38</v>
@@ -11567,7 +11564,7 @@
         <v>34</v>
       </c>
       <c r="W107" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="X107" s="7" t="s">
         <v>80</v>
@@ -11632,16 +11629,16 @@
         <v>34</v>
       </c>
       <c r="O108" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P108" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q108" s="7" t="s">
         <v>37</v>
       </c>
       <c r="R108" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S108" s="7" t="s">
         <v>38</v>
@@ -11730,7 +11727,7 @@
         <v>37</v>
       </c>
       <c r="R109" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S109" s="7" t="s">
         <v>38</v>
@@ -11798,7 +11795,7 @@
         <v>57</v>
       </c>
       <c r="K110" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L110" s="7" t="s">
         <v>33</v>
@@ -11819,7 +11816,7 @@
         <v>37</v>
       </c>
       <c r="R110" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S110" s="7" t="s">
         <v>38</v>
@@ -11846,7 +11843,7 @@
         <v>41</v>
       </c>
       <c r="AA110" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AB110" s="7" t="s">
         <v>149</v>
@@ -11887,7 +11884,7 @@
         <v>90</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L111" s="7" t="s">
         <v>33</v>
@@ -11908,7 +11905,7 @@
         <v>37</v>
       </c>
       <c r="R111" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S111" s="7" t="s">
         <v>38</v>
@@ -11976,7 +11973,7 @@
         <v>160</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L112" s="7" t="s">
         <v>33</v>
@@ -11997,7 +11994,7 @@
         <v>37</v>
       </c>
       <c r="R112" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S112" s="7" t="s">
         <v>38</v>
@@ -12050,7 +12047,7 @@
         <v>45</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G113" s="8">
         <v>31</v>
@@ -12086,7 +12083,7 @@
         <v>37</v>
       </c>
       <c r="R113" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S113" s="7" t="s">
         <v>38</v>
@@ -12139,7 +12136,7 @@
         <v>45</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G114" s="8" t="s">
         <v>178</v>
@@ -12154,7 +12151,7 @@
         <v>90</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L114" s="7" t="s">
         <v>33</v>
@@ -12175,7 +12172,7 @@
         <v>37</v>
       </c>
       <c r="R114" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S114" s="7" t="s">
         <v>38</v>
@@ -12228,7 +12225,7 @@
         <v>45</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G115" s="8" t="s">
         <v>178</v>
@@ -12243,7 +12240,7 @@
         <v>90</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L115" s="7" t="s">
         <v>57</v>
@@ -12264,7 +12261,7 @@
         <v>37</v>
       </c>
       <c r="R115" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S115" s="7" t="s">
         <v>38</v>
@@ -12341,7 +12338,7 @@
         <v>176</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O116" s="5" t="s">
         <v>34</v>
@@ -12353,7 +12350,7 @@
         <v>37</v>
       </c>
       <c r="R116" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S116" s="5" t="s">
         <v>38</v>
@@ -12376,8 +12373,8 @@
       <c r="Y116" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Z116" s="5" t="s">
-        <v>196</v>
+      <c r="Z116" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="AA116" s="5" t="s">
         <v>81</v>
@@ -12442,7 +12439,7 @@
         <v>37</v>
       </c>
       <c r="R117" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S117" s="5" t="s">
         <v>38</v>
@@ -12495,7 +12492,7 @@
         <v>45</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G118" s="8">
         <v>33</v>
@@ -12507,7 +12504,7 @@
         <v>56</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K118" s="5" t="s">
         <v>32</v>
@@ -12531,7 +12528,7 @@
         <v>37</v>
       </c>
       <c r="R118" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S118" s="5" t="s">
         <v>38</v>
@@ -12608,7 +12605,7 @@
         <v>176</v>
       </c>
       <c r="N119" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O119" s="5" t="s">
         <v>35</v>
@@ -12620,7 +12617,7 @@
         <v>37</v>
       </c>
       <c r="R119" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S119" s="5" t="s">
         <v>38</v>
@@ -12647,7 +12644,7 @@
         <v>80</v>
       </c>
       <c r="AA119" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AB119" s="5" t="s">
         <v>67</v>
@@ -12709,7 +12706,7 @@
         <v>37</v>
       </c>
       <c r="R120" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S120" s="5" t="s">
         <v>38</v>
@@ -12798,7 +12795,7 @@
         <v>37</v>
       </c>
       <c r="R121" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S121" s="5" t="s">
         <v>38</v>
@@ -12851,7 +12848,7 @@
         <v>45</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>178</v>
@@ -12878,16 +12875,16 @@
         <v>115</v>
       </c>
       <c r="O122" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P122" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q122" s="5" t="s">
         <v>37</v>
       </c>
       <c r="R122" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S122" s="5" t="s">
         <v>38</v>
@@ -12967,19 +12964,19 @@
         <v>34</v>
       </c>
       <c r="O123" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P123" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Q123" s="5" t="s">
         <v>37</v>
       </c>
       <c r="R123" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S123" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T123" s="5" t="s">
         <v>62</v>
@@ -13065,7 +13062,7 @@
         <v>37</v>
       </c>
       <c r="R124" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S124" s="5" t="s">
         <v>117</v>
@@ -13118,7 +13115,7 @@
         <v>45</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G125" s="6" t="s">
         <v>178</v>
@@ -13145,7 +13142,7 @@
         <v>34</v>
       </c>
       <c r="O125" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P125" s="7" t="s">
         <v>111</v>
@@ -13154,10 +13151,10 @@
         <v>37</v>
       </c>
       <c r="R125" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S125" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T125" s="5" t="s">
         <v>62</v>
@@ -13207,7 +13204,7 @@
         <v>45</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G126" s="6" t="s">
         <v>178</v>
@@ -13222,34 +13219,34 @@
         <v>90</v>
       </c>
       <c r="K126" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="L126" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="M126" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="L126" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="M126" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="N126" s="7" t="s">
         <v>85</v>
       </c>
       <c r="O126" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="P126" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q126" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="P126" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q126" s="5" t="s">
-        <v>213</v>
-      </c>
       <c r="R126" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S126" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T126" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U126" s="5" t="s">
         <v>34</v>
@@ -13270,7 +13267,7 @@
         <v>41</v>
       </c>
       <c r="AA126" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AB126" s="5" t="s">
         <v>67</v>
@@ -13296,7 +13293,7 @@
         <v>45</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G127" s="8" t="s">
         <v>178</v>
@@ -13308,7 +13305,7 @@
         <v>56</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K127" s="7" t="s">
         <v>33</v>
@@ -13332,13 +13329,13 @@
         <v>37</v>
       </c>
       <c r="R127" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S127" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T127" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U127" s="7" t="s">
         <v>34</v>
@@ -13385,7 +13382,7 @@
         <v>45</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G128" s="8">
         <v>27</v>
@@ -13400,34 +13397,34 @@
         <v>34</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L128" s="7" t="s">
         <v>84</v>
       </c>
       <c r="M128" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="N128" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="O128" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="N128" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="O128" s="7" t="s">
-        <v>515</v>
-      </c>
       <c r="P128" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q128" s="7" t="s">
         <v>37</v>
       </c>
       <c r="R128" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S128" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="T128" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U128" s="7" t="s">
         <v>34</v>
@@ -13474,7 +13471,7 @@
         <v>45</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G129" s="8" t="s">
         <v>178</v>
@@ -13486,13 +13483,13 @@
         <v>56</v>
       </c>
       <c r="J129" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L129" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M129" s="7" t="s">
         <v>85</v>
@@ -13510,13 +13507,13 @@
         <v>37</v>
       </c>
       <c r="R129" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S129" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T129" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U129" s="7" t="s">
         <v>34</v>
@@ -13534,7 +13531,7 @@
         <v>40</v>
       </c>
       <c r="Z129" s="7" t="s">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="AA129" s="7" t="s">
         <v>81</v>
@@ -13563,7 +13560,7 @@
         <v>45</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G130" s="8">
         <v>29</v>
@@ -13599,13 +13596,13 @@
         <v>37</v>
       </c>
       <c r="R130" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S130" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T130" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U130" s="7" t="s">
         <v>34</v>
@@ -13652,7 +13649,7 @@
         <v>45</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G131" s="8">
         <v>26</v>
@@ -13667,7 +13664,7 @@
         <v>90</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L131" s="7" t="s">
         <v>33</v>
@@ -13679,22 +13676,22 @@
         <v>115</v>
       </c>
       <c r="O131" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P131" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q131" s="7" t="s">
         <v>37</v>
       </c>
       <c r="R131" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S131" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T131" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U131" s="7" t="s">
         <v>34</v>
@@ -13741,7 +13738,7 @@
         <v>45</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G132" s="8">
         <v>25</v>
@@ -13768,28 +13765,28 @@
         <v>34</v>
       </c>
       <c r="O132" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P132" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Q132" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R132" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S132" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="T132" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="T132" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="U132" s="7" t="s">
         <v>87</v>
       </c>
       <c r="V132" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="W132" s="7" t="s">
         <v>41</v>
@@ -13863,10 +13860,10 @@
         <v>34</v>
       </c>
       <c r="Q133" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R133" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S133" s="5" t="s">
         <v>105</v>
@@ -13878,7 +13875,7 @@
         <v>87</v>
       </c>
       <c r="V133" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="W133" s="5" t="s">
         <v>41</v>
@@ -13889,7 +13886,7 @@
       <c r="Y133" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Z133" s="5" t="s">
+      <c r="Z133" s="7" t="s">
         <v>80</v>
       </c>
       <c r="AA133" s="5" t="s">
@@ -13949,13 +13946,13 @@
         <v>86</v>
       </c>
       <c r="P134" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q134" s="5" t="s">
         <v>37</v>
       </c>
       <c r="R134" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S134" s="5" t="s">
         <v>38</v>
@@ -13967,7 +13964,7 @@
         <v>87</v>
       </c>
       <c r="V134" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="W134" s="5" t="s">
         <v>41</v>
@@ -14008,7 +14005,7 @@
         <v>45</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G135" s="8" t="s">
         <v>178</v>
@@ -14023,7 +14020,7 @@
         <v>90</v>
       </c>
       <c r="K135" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L135" s="7" t="s">
         <v>33</v>
@@ -14044,10 +14041,10 @@
         <v>37</v>
       </c>
       <c r="R135" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S135" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="T135" s="7" t="s">
         <v>62</v>
@@ -14056,7 +14053,7 @@
         <v>87</v>
       </c>
       <c r="V135" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="W135" s="7" t="s">
         <v>41</v>
@@ -14097,7 +14094,7 @@
         <v>45</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G136" s="8">
         <v>23</v>
@@ -14112,7 +14109,7 @@
         <v>34</v>
       </c>
       <c r="K136" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L136" s="7" t="s">
         <v>127</v>
@@ -14130,22 +14127,22 @@
         <v>34</v>
       </c>
       <c r="Q136" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R136" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S136" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T136" s="7" t="s">
         <v>62</v>
       </c>
       <c r="U136" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V136" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W136" s="7" t="s">
         <v>34</v>
@@ -14198,7 +14195,7 @@
         <v>30</v>
       </c>
       <c r="J137" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K137" s="7" t="s">
         <v>33</v>
@@ -14222,19 +14219,19 @@
         <v>37</v>
       </c>
       <c r="R137" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S137" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="T137" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="U137" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="T137" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="U137" s="7" t="s">
-        <v>444</v>
-      </c>
       <c r="V137" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="W137" s="7" t="s">
         <v>39</v>
@@ -14249,7 +14246,7 @@
         <v>41</v>
       </c>
       <c r="AA137" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AB137" s="7" t="s">
         <v>149</v>
@@ -14275,7 +14272,7 @@
         <v>45</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G138" s="8" t="s">
         <v>178</v>
@@ -14290,7 +14287,7 @@
         <v>90</v>
       </c>
       <c r="K138" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L138" s="7" t="s">
         <v>33</v>
@@ -14311,19 +14308,19 @@
         <v>37</v>
       </c>
       <c r="R138" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S138" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="T138" s="7" t="s">
         <v>62</v>
       </c>
       <c r="U138" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="V138" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="W138" s="7" t="s">
         <v>80</v>
@@ -14394,7 +14391,7 @@
         <v>103</v>
       </c>
       <c r="P139" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q139" s="7" t="s">
         <v>104</v>
@@ -14412,7 +14409,7 @@
         <v>87</v>
       </c>
       <c r="V139" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="W139" s="7" t="s">
         <v>80</v>
@@ -14453,7 +14450,7 @@
         <v>45</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G140" s="8" t="s">
         <v>178</v>
@@ -14468,7 +14465,7 @@
         <v>101</v>
       </c>
       <c r="K140" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L140" s="7" t="s">
         <v>137</v>
@@ -14486,13 +14483,13 @@
         <v>34</v>
       </c>
       <c r="Q140" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R140" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S140" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T140" s="7" t="s">
         <v>62</v>
@@ -14548,16 +14545,16 @@
         <v>29</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I141" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J141" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="K141" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="K141" s="5" t="s">
-        <v>306</v>
       </c>
       <c r="L141" s="7" t="s">
         <v>127</v>
@@ -14575,10 +14572,10 @@
         <v>34</v>
       </c>
       <c r="Q141" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R141" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S141" s="5" t="s">
         <v>105</v>
@@ -14590,7 +14587,7 @@
         <v>87</v>
       </c>
       <c r="V141" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="W141" s="5" t="s">
         <v>39</v>
@@ -14601,11 +14598,11 @@
       <c r="Y141" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Z141" s="5" t="s">
+      <c r="Z141" s="7" t="s">
         <v>80</v>
       </c>
       <c r="AA141" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB141" s="5" t="s">
         <v>181</v>
@@ -14661,7 +14658,7 @@
         <v>23</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -14678,7 +14675,7 @@
         <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -14686,7 +14683,7 @@
         <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
@@ -14720,7 +14717,7 @@
         <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
@@ -14746,7 +14743,7 @@
         <v>88</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -14763,7 +14760,7 @@
         <v>88</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -14780,7 +14777,7 @@
         <v>81</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -14797,7 +14794,7 @@
         <v>81</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -14814,7 +14811,7 @@
         <v>66</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -14831,7 +14828,7 @@
         <v>81</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -14839,7 +14836,7 @@
         <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C12" t="s">
         <v>56</v>
@@ -14848,7 +14845,7 @@
         <v>88</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -14856,7 +14853,7 @@
         <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C13" t="s">
         <v>56</v>
@@ -14865,7 +14862,7 @@
         <v>88</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -14873,7 +14870,7 @@
         <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C14" t="s">
         <v>56</v>
@@ -14882,7 +14879,7 @@
         <v>88</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -14890,7 +14887,7 @@
         <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C15" t="s">
         <v>56</v>
@@ -14899,7 +14896,7 @@
         <v>88</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -14958,7 +14955,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C19" t="s">
         <v>56</v>
@@ -15035,7 +15032,7 @@
         <v>88</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -15077,7 +15074,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C26" t="s">
         <v>56</v>
@@ -15094,7 +15091,7 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C27" t="s">
         <v>56</v>
@@ -15196,7 +15193,7 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C33" t="s">
         <v>56</v>
@@ -15213,7 +15210,7 @@
         <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C34" t="s">
         <v>56</v>
@@ -15230,7 +15227,7 @@
         <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C35" t="s">
         <v>56</v>
@@ -15247,7 +15244,7 @@
         <v>108</v>
       </c>
       <c r="B36" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C36" t="s">
         <v>56</v>
@@ -15281,7 +15278,7 @@
         <v>135</v>
       </c>
       <c r="B38" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C38" t="s">
         <v>56</v>
@@ -15307,7 +15304,7 @@
         <v>88</v>
       </c>
       <c r="E39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -15324,7 +15321,7 @@
         <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -15341,7 +15338,7 @@
         <v>66</v>
       </c>
       <c r="E41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -15358,7 +15355,7 @@
         <v>81</v>
       </c>
       <c r="E42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -15375,7 +15372,7 @@
         <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -15392,7 +15389,7 @@
         <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -15409,7 +15406,7 @@
         <v>81</v>
       </c>
       <c r="E45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -15426,7 +15423,7 @@
         <v>81</v>
       </c>
       <c r="E46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -15443,7 +15440,7 @@
         <v>81</v>
       </c>
       <c r="E47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -15457,10 +15454,10 @@
         <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -15477,7 +15474,7 @@
         <v>88</v>
       </c>
       <c r="E49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -15494,7 +15491,7 @@
         <v>81</v>
       </c>
       <c r="E50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -15511,7 +15508,7 @@
         <v>66</v>
       </c>
       <c r="E51" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -15528,7 +15525,7 @@
         <v>81</v>
       </c>
       <c r="E52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -15545,7 +15542,7 @@
         <v>81</v>
       </c>
       <c r="E53" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -15562,7 +15559,7 @@
         <v>81</v>
       </c>
       <c r="E54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -15596,7 +15593,7 @@
         <v>66</v>
       </c>
       <c r="E56" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -15613,7 +15610,7 @@
         <v>88</v>
       </c>
       <c r="E57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -15621,7 +15618,7 @@
         <v>125</v>
       </c>
       <c r="B58" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C58" t="s">
         <v>56</v>
@@ -15630,7 +15627,7 @@
         <v>88</v>
       </c>
       <c r="E58" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -15638,7 +15635,7 @@
         <v>97</v>
       </c>
       <c r="B59" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C59" t="s">
         <v>56</v>
@@ -15647,7 +15644,7 @@
         <v>81</v>
       </c>
       <c r="E59" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -15664,7 +15661,7 @@
         <v>81</v>
       </c>
       <c r="E60" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -15678,7 +15675,7 @@
         <v>56</v>
       </c>
       <c r="D61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E61" t="s">
         <v>90</v>
@@ -15831,7 +15828,7 @@
         <v>56</v>
       </c>
       <c r="D70" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E70" t="s">
         <v>90</v>
@@ -15899,7 +15896,7 @@
         <v>56</v>
       </c>
       <c r="D74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E74" t="s">
         <v>90</v>
@@ -16590,7 +16587,7 @@
         <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C115" t="s">
         <v>56</v>
@@ -16718,7 +16715,7 @@
         <v>88</v>
       </c>
       <c r="E122" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -16732,10 +16729,10 @@
         <v>56</v>
       </c>
       <c r="D123" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E123" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -16752,7 +16749,7 @@
         <v>81</v>
       </c>
       <c r="E124" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -16769,7 +16766,7 @@
         <v>81</v>
       </c>
       <c r="E125" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -16862,7 +16859,7 @@
         <v>120</v>
       </c>
       <c r="B131" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C131" t="s">
         <v>56</v>
@@ -16956,7 +16953,7 @@
         <v>81</v>
       </c>
       <c r="E136" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -16981,7 +16978,7 @@
         <v>5</v>
       </c>
       <c r="B138" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C138" t="s">
         <v>56</v>
@@ -17100,7 +17097,7 @@
         <v>39</v>
       </c>
       <c r="B145" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C145" t="s">
         <v>56</v>
@@ -17140,7 +17137,7 @@
         <v>56</v>
       </c>
       <c r="D147" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E147" t="s">
         <v>57</v>
@@ -17491,7 +17488,7 @@
         <v>54</v>
       </c>
       <c r="B168" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C168" t="s">
         <v>56</v>
